--- a/Algoritmia/Practica/Practica 7/Practica_7_2022_es/Libro1.xlsx
+++ b/Algoritmia/Practica/Practica 7/Practica_7_2022_es/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omenp\Documents\2-curso-2-cuatri\Algoritmia\Practica\Practica 7\Practica_7_2022_es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD84DD58-6BD4-48F0-A350-98A251942A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552A873-075E-4F3C-B7D0-AF30DD250E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66FF26B6-27F6-42B0-A50A-817348690B97}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66FF26B6-27F6-42B0-A50A-817348690B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>n</t>
   </si>
@@ -52,14 +52,23 @@
     <t>Contador BnB</t>
   </si>
   <si>
-    <t>t</t>
+    <t>num imágenes</t>
+  </si>
+  <si>
+    <t>heap space</t>
+  </si>
+  <si>
+    <t>ZNCC_Backtracking</t>
+  </si>
+  <si>
+    <t>ZNCC_ BnB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +87,35 @@
       <color theme="1"/>
       <name val="San Francisco"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="San Francisco"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="San Francisco"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,15 +145,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -131,6 +170,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9999FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -439,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EB8131-05ED-4D92-8DBF-57B4DDD7E6CA}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -451,107 +495,481 @@
     <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.7459999999999999E-3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="I2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="B3" s="2">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.9555000000000001E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.3123999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="B4" s="2">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.1496999999999999E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.3690999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="B5" s="2">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2">
+        <v>364</v>
+      </c>
+      <c r="D5" s="2">
+        <v>192</v>
+      </c>
+      <c r="E5" s="2">
+        <v>364</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.8218000000000002E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.5221000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>321</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1093</v>
+      </c>
+      <c r="D6" s="2">
+        <v>675</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1093</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.1588000000000002E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.7108999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="B7" s="2">
+        <v>996</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3280</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2247</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3280</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.9881999999999998E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.3150999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="B8" s="2">
+        <v>3052</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9841</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5611</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9841</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.4618E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.3284999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="B9" s="2">
+        <v>9324</v>
+      </c>
+      <c r="C9" s="2">
+        <v>29524</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7.0973999999999995E-2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="2">
+        <v>29626</v>
+      </c>
+      <c r="C10" s="2">
+        <v>88573</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7.6252E-2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.1989999999999996E-3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.799E-3</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.8478E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.6920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>121</v>
+      </c>
+      <c r="D15" s="2">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2">
+        <v>121</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.7522000000000001E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.7824000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>130</v>
+      </c>
+      <c r="C16" s="2">
+        <v>364</v>
+      </c>
+      <c r="D16" s="2">
+        <v>184</v>
+      </c>
+      <c r="E16" s="2">
+        <v>364</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.4373000000000001E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.0191999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>328</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1093</v>
+      </c>
+      <c r="D17" s="2">
+        <v>559</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1093</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.7011999999999998E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.4615999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1017</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3280</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1919</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3280</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5.4908999999999999E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.8057999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3123</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9841</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5515</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9841</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6.0142000000000001E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>6.0269000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9493</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29524</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7">
+        <v>7.4446999999999999E-2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>29320</v>
+      </c>
+      <c r="C21" s="2">
+        <v>88573</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="7">
+        <v>7.9416E-2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
